--- a/biology/Médecine/Johannes_Burchart_VII/Johannes_Burchart_VII.xlsx
+++ b/biology/Médecine/Johannes_Burchart_VII/Johannes_Burchart_VII.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johnannes Burchard VII (Burchard von Béllawary de Sycava) (1748 - 1808) fut le pharmacien de la ville de Tallinn en gouvernement d'Estonie de 1772 à 1808. 
 Il est le fils du médecin-pharmacien Johannes Burchart VI. Lors de son baptême, son parrain fut le duc de Holstein-Beck. Il est éduqué à la maison royale de Weissenfels puis à Halle jusqu'en 1768. Il étudie ensuite la médecine à Halle, à Berlin puis à Leipzig où il est reçu docteur en 1772. Il revient la même année à Tallinn pour reprendre la pharmacie (Raeapteek) de ses ancêtres. Un examen passé à Saint-Pétersbourg lui donne le droit le 23 décembre 1784 de pratiquer la médecine dans tout l'empire et il est intégré à la noblesse russe.
@@ -513,7 +525,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Raeapteek
 Pharmaciens Burchard</t>
